--- a/biology/Zoologie/Bolitoglossa_insularis/Bolitoglossa_insularis.xlsx
+++ b/biology/Zoologie/Bolitoglossa_insularis/Bolitoglossa_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa insularis est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa insularis est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département du Río San Juan au Nicaragua. Elle se rencontre dans l'île d'Ometepe dans le lac Nicaragua à environ 800 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département du Río San Juan au Nicaragua. Elle se rencontre dans l'île d'Ometepe dans le lac Nicaragua à environ 800 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 120,6 mm dont 55,9 mm pour la queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 120,6 mm dont 55,9 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin insularis, « insulaire », lui a été donné en référence à son aire de répartition supposée restreinte à l'île d'Ometepe.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sunyer, Lotzkat, Hertz, Wake, Alemán, Robleto &amp; Köhler, 2008 : Two new species of salamanders (genus Bolitoglossa) from southern Nicaragua (Amphibia, Caudata, Plethodontidae). Senckenbergiana Biologica, vol. 88, no 2, p. 319-328 (texte intégral).</t>
         </is>
